--- a/public/docs/Sample.xlsx
+++ b/public/docs/Sample.xlsx
@@ -4,33 +4,37 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="48" windowWidth="19140" windowHeight="7416"/>
+    <workbookView xWindow="0" yWindow="2436" windowWidth="18708" windowHeight="6144"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>id</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>brand</t>
-  </si>
-  <si>
     <t>iPad</t>
   </si>
   <si>
     <t>Apple6</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Brand</t>
+  </si>
+  <si>
+    <t>Device Type</t>
   </si>
 </sst>
 </file>
@@ -369,34 +373,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="10.77734375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
